--- a/1.2 Excel Practice.xlsx
+++ b/1.2 Excel Practice.xlsx
@@ -202,10 +202,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot;р.&quot;;[Red]\-#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="167" formatCode="[$р.-419]#,##0.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -295,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -345,9 +346,13 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -713,8 +718,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="10">
-        <f>PV(K7, 8, 0, -4500)</f>
-        <v>2099.283211</v>
+        <v>-500.0</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>25</v>
@@ -834,7 +838,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="8">
-        <v>-450.0</v>
+        <v>450.0</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>26</v>
@@ -944,8 +948,8 @@
         <v>43</v>
       </c>
       <c r="B8" s="18">
-        <f>PMT(B4,B6,-B5)</f>
-        <v>115024.5985</v>
+        <f>PMT(B4,B6,B7,-B5)</f>
+        <v>5024.598476</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>23</v>
@@ -959,7 +963,7 @@
       </c>
       <c r="H8" s="18">
         <f>FV(H7,H5,H6,H4,1)</f>
-        <v>6652.619693</v>
+        <v>-6652.619693</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>30</v>
@@ -1030,9 +1034,9 @@
       <c r="J11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="27">
-        <f>FV(K7,4,0,K4)</f>
-        <v>-3073.560549</v>
+      <c r="K11" s="29">
+        <f>FV(K7,K5,K6,K4)</f>
+        <v>732.05</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>51</v>
@@ -1047,13 +1051,13 @@
         <v>52</v>
       </c>
       <c r="K12" s="18">
-        <f>K10-K11</f>
-        <v>-341.5067277</v>
+        <f>-(K10+K11)</f>
+        <v>2683.017277</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="30">
         <f>SUM(N9:N11)</f>
         <v>-2724.842946</v>
       </c>
@@ -1070,31 +1074,31 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="Y15" s="5"/>
-      <c r="AI15" s="27"/>
+      <c r="AI15" s="31"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="V16" s="30"/>
+      <c r="V16" s="32"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="V17" s="30"/>
+      <c r="V17" s="32"/>
       <c r="AH17" s="26"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="V18" s="30"/>
+      <c r="V18" s="32"/>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="31"/>
+      <c r="B21" s="33"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1"/>
     <row r="24" ht="14.25" customHeight="1"/>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="J25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+      <c r="J25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1"/>
